--- a/test-rig/cvocd_cal.xlsx
+++ b/test-rig/cvocd_cal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cvocd.a\test-rig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FD1618-C591-4263-B9EB-AB2BB14D9267}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F44BB1-19E1-4984-AA57-66BD096D8A43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="7785" activeTab="5" xr2:uid="{4840E51C-A9B1-48B5-82CC-3BF0C9CD111A}"/>
   </bookViews>
@@ -8624,256 +8624,256 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1083</c:v>
+                  <c:v>1083.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1167</c:v>
+                  <c:v>1166.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1333</c:v>
+                  <c:v>1333.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1417</c:v>
+                  <c:v>1416.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1583</c:v>
+                  <c:v>1583.33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1667</c:v>
+                  <c:v>1666.67</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1833</c:v>
+                  <c:v>1833.33</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1917</c:v>
+                  <c:v>1916.67</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2083</c:v>
+                  <c:v>2083.33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2167</c:v>
+                  <c:v>2166.67</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2333</c:v>
+                  <c:v>2333.33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2417</c:v>
+                  <c:v>2416.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2583</c:v>
+                  <c:v>2583.33</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2667</c:v>
+                  <c:v>2666.67</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2750</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2833</c:v>
+                  <c:v>2833.33</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2917</c:v>
+                  <c:v>2916.67</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3083</c:v>
+                  <c:v>3083.33</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3167</c:v>
+                  <c:v>3166.67</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3250</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3333</c:v>
+                  <c:v>3333.33</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3417</c:v>
+                  <c:v>3416.67</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3583</c:v>
+                  <c:v>3583.33</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3667</c:v>
+                  <c:v>3666.67</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3833</c:v>
+                  <c:v>3833.33</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3917</c:v>
+                  <c:v>3916.67</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4083</c:v>
+                  <c:v>4083.33</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4167</c:v>
+                  <c:v>4166.66</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4250</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4333</c:v>
+                  <c:v>4333.33</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4417</c:v>
+                  <c:v>4416.67</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4583</c:v>
+                  <c:v>4583.33</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4667</c:v>
+                  <c:v>4666.67</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4833</c:v>
+                  <c:v>4833.33</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4917</c:v>
+                  <c:v>4916.67</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5083</c:v>
+                  <c:v>5083.33</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5167</c:v>
+                  <c:v>5166.67</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5250</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5333</c:v>
+                  <c:v>5333.33</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5417</c:v>
+                  <c:v>5416.67</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5583</c:v>
+                  <c:v>5583.33</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5667</c:v>
+                  <c:v>5666.67</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>5750</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5833</c:v>
+                  <c:v>5833.33</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5917</c:v>
+                  <c:v>5916.67</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6083</c:v>
+                  <c:v>6083.34</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6167</c:v>
+                  <c:v>6166.67</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6333</c:v>
+                  <c:v>6333.34</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6417</c:v>
+                  <c:v>6416.67</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>6500</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6583</c:v>
+                  <c:v>6583.34</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6667</c:v>
+                  <c:v>6666.67</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>6750</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6833</c:v>
+                  <c:v>6833.34</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6917</c:v>
+                  <c:v>6916.67</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7083</c:v>
+                  <c:v>7083.34</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7167</c:v>
+                  <c:v>7166.67</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7250</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7333</c:v>
+                  <c:v>7333.34</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7417</c:v>
+                  <c:v>7416.67</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7583</c:v>
+                  <c:v>7583.34</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7667</c:v>
+                  <c:v>7666.67</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7750</c:v>
+                  <c:v>7750.01</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7833</c:v>
+                  <c:v>7833.34</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7917</c:v>
+                  <c:v>7916.67</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8000</c:v>
+                  <c:v>8000.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8907,259 +8907,259 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>1002</c:v>
+                  <c:v>1005.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1084</c:v>
+                  <c:v>1088.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1167</c:v>
+                  <c:v>1172.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1253</c:v>
+                  <c:v>1257.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1333</c:v>
+                  <c:v>1338.91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1416</c:v>
+                  <c:v>1418.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1502</c:v>
+                  <c:v>1502.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1583</c:v>
+                  <c:v>1584.27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1666</c:v>
+                  <c:v>1669.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1751</c:v>
+                  <c:v>1752.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1833</c:v>
+                  <c:v>1832.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1914</c:v>
+                  <c:v>1915.69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2001</c:v>
+                  <c:v>2001.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2086</c:v>
+                  <c:v>2087.73</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2169</c:v>
+                  <c:v>2170.13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2252</c:v>
+                  <c:v>2255.14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2336</c:v>
+                  <c:v>2339.63</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2419</c:v>
+                  <c:v>2420.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2504</c:v>
+                  <c:v>2503.98</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2587</c:v>
+                  <c:v>2586</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2668</c:v>
+                  <c:v>2669.42</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2752</c:v>
+                  <c:v>2749.53</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2836</c:v>
+                  <c:v>2830.87</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2916</c:v>
+                  <c:v>2913.26</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3001</c:v>
+                  <c:v>2996.62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3087</c:v>
+                  <c:v>3084.18</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3170</c:v>
+                  <c:v>3168.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3253</c:v>
+                  <c:v>3253.18</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3336</c:v>
+                  <c:v>3332.87</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3421</c:v>
+                  <c:v>3415.81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3504</c:v>
+                  <c:v>3500.55</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3587</c:v>
+                  <c:v>3583.89</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3670</c:v>
+                  <c:v>3665.79</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3753</c:v>
+                  <c:v>3748.55</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3835</c:v>
+                  <c:v>3832</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3917</c:v>
+                  <c:v>3915.04</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3999</c:v>
+                  <c:v>3998.42</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4083</c:v>
+                  <c:v>4083.68</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4166</c:v>
+                  <c:v>4165.54</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4251</c:v>
+                  <c:v>4246.71</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4335</c:v>
+                  <c:v>4331.28</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4419</c:v>
+                  <c:v>4416.21</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4503</c:v>
+                  <c:v>4500.26</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4587</c:v>
+                  <c:v>4581.43</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4673</c:v>
+                  <c:v>4665.59</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4753</c:v>
+                  <c:v>4746.93</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4835</c:v>
+                  <c:v>4829.74</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4920</c:v>
+                  <c:v>4913.75</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5001</c:v>
+                  <c:v>4998.92</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5082</c:v>
+                  <c:v>5081.87</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5169</c:v>
+                  <c:v>5167.08</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5253</c:v>
+                  <c:v>5249.77</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5336</c:v>
+                  <c:v>5332.45</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5419</c:v>
+                  <c:v>5418.02</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5504</c:v>
+                  <c:v>5499.31</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5587</c:v>
+                  <c:v>5582.9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5675</c:v>
+                  <c:v>5669.35</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5756</c:v>
+                  <c:v>5753.48</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5839</c:v>
+                  <c:v>5834.63</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5925</c:v>
+                  <c:v>5919.29</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6006</c:v>
+                  <c:v>6002.18</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6087</c:v>
+                  <c:v>6083.87</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6172</c:v>
+                  <c:v>6172.21</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6256</c:v>
+                  <c:v>6257.08</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6335</c:v>
+                  <c:v>6337.83</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6420</c:v>
+                  <c:v>6423.77</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6503</c:v>
+                  <c:v>6508.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6582</c:v>
+                  <c:v>6590.74</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6666</c:v>
+                  <c:v>6676.37</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6751</c:v>
+                  <c:v>6758.63</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6832</c:v>
+                  <c:v>6836.84</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6917</c:v>
+                  <c:v>6919.64</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7000</c:v>
+                  <c:v>7002.42</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7081</c:v>
+                  <c:v>7084.68</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7168</c:v>
+                  <c:v>7168.04</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7252</c:v>
+                  <c:v>7254.63</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7333</c:v>
+                  <c:v>7333.83</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7420</c:v>
+                  <c:v>7415.55</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7506</c:v>
+                  <c:v>7499.37</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7583</c:v>
+                  <c:v>7578.66</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7668</c:v>
+                  <c:v>7666.77</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7753</c:v>
+                  <c:v>7750.96</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7833</c:v>
+                  <c:v>7830.18</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7916</c:v>
+                  <c:v>7914.89</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8001</c:v>
+                  <c:v>7997.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9193,259 +9193,259 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>1002</c:v>
+                  <c:v>1000.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1084</c:v>
+                  <c:v>1081.3800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1167</c:v>
+                  <c:v>1165.8499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1253</c:v>
+                  <c:v>1249.8499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1336</c:v>
+                  <c:v>1330.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1420</c:v>
+                  <c:v>1413.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1503</c:v>
+                  <c:v>1498.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1585</c:v>
+                  <c:v>1581.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1667</c:v>
+                  <c:v>1665.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1752</c:v>
+                  <c:v>1749.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1834</c:v>
+                  <c:v>1831.68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1917</c:v>
+                  <c:v>1914.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2005</c:v>
+                  <c:v>2002.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2089</c:v>
+                  <c:v>2086.69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2173</c:v>
+                  <c:v>2170.38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2256</c:v>
+                  <c:v>2254.3200000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2337</c:v>
+                  <c:v>2334.67</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2420</c:v>
+                  <c:v>2418.84</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2504</c:v>
+                  <c:v>2501.2199999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2588</c:v>
+                  <c:v>2585.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2672</c:v>
+                  <c:v>2668.89</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2756</c:v>
+                  <c:v>2751.27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2839</c:v>
+                  <c:v>2836.11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2921</c:v>
+                  <c:v>2918.89</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3006</c:v>
+                  <c:v>3002.89</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3089</c:v>
+                  <c:v>3085.96</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3171</c:v>
+                  <c:v>3169.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3255</c:v>
+                  <c:v>3254.71</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3336</c:v>
+                  <c:v>3335.23</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3419</c:v>
+                  <c:v>3418.94</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3503</c:v>
+                  <c:v>3500.66</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3585</c:v>
+                  <c:v>3582.34</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3668</c:v>
+                  <c:v>3664.27</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3751</c:v>
+                  <c:v>3748.68</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3833</c:v>
+                  <c:v>3830.93</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3914</c:v>
+                  <c:v>3915.63</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3999</c:v>
+                  <c:v>4000.34</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4082</c:v>
+                  <c:v>4085.71</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4166</c:v>
+                  <c:v>4169.29</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4249</c:v>
+                  <c:v>4253.2299999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4329</c:v>
+                  <c:v>4336.21</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4412</c:v>
+                  <c:v>4418.54</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4496</c:v>
+                  <c:v>4501.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4579</c:v>
+                  <c:v>4581.3900000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4664</c:v>
+                  <c:v>4665.04</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4748</c:v>
+                  <c:v>4747.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4830</c:v>
+                  <c:v>4830.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4913</c:v>
+                  <c:v>4914.88</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4998</c:v>
+                  <c:v>4998.51</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5084</c:v>
+                  <c:v>5085.0200000000004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5169</c:v>
+                  <c:v>5170.54</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5252</c:v>
+                  <c:v>5252.01</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5333</c:v>
+                  <c:v>5335.22</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5417</c:v>
+                  <c:v>5419.62</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5500</c:v>
+                  <c:v>5498.07</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5583</c:v>
+                  <c:v>5581.3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5667</c:v>
+                  <c:v>5666.53</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5750</c:v>
+                  <c:v>5747.52</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5832</c:v>
+                  <c:v>5832.01</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5916</c:v>
+                  <c:v>5914.06</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5999</c:v>
+                  <c:v>5998.31</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6083</c:v>
+                  <c:v>6080.4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6170</c:v>
+                  <c:v>6164.83</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6253</c:v>
+                  <c:v>6248.87</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6334</c:v>
+                  <c:v>6329.48</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6418</c:v>
+                  <c:v>6413.28</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6501</c:v>
+                  <c:v>6496.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6582</c:v>
+                  <c:v>6580.22</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6666</c:v>
+                  <c:v>6667.96</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6749</c:v>
+                  <c:v>6747.65</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6831</c:v>
+                  <c:v>6829.93</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6915</c:v>
+                  <c:v>6914.45</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6998</c:v>
+                  <c:v>6998.26</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>7081</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7168</c:v>
+                  <c:v>7166.49</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7249</c:v>
+                  <c:v>7249.74</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7332</c:v>
+                  <c:v>7331.15</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7418</c:v>
+                  <c:v>7414.6</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7500</c:v>
+                  <c:v>7498.33</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7582</c:v>
+                  <c:v>7581.25</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7665</c:v>
+                  <c:v>7666.03</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7747</c:v>
+                  <c:v>7751.6</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7827</c:v>
+                  <c:v>7831.45</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7913</c:v>
+                  <c:v>7918</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7996</c:v>
+                  <c:v>8001.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9479,259 +9479,259 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>1005</c:v>
+                  <c:v>999.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1088</c:v>
+                  <c:v>1083.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1172</c:v>
+                  <c:v>1166.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1255</c:v>
+                  <c:v>1252.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1337</c:v>
+                  <c:v>1333.69</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1423</c:v>
+                  <c:v>1416.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1504</c:v>
+                  <c:v>1501.58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1585</c:v>
+                  <c:v>1581.18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1668</c:v>
+                  <c:v>1664.03</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1751</c:v>
+                  <c:v>1749.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1834</c:v>
+                  <c:v>1835.11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1917</c:v>
+                  <c:v>1912.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2002</c:v>
+                  <c:v>1998.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2086</c:v>
+                  <c:v>2082.14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2171</c:v>
+                  <c:v>2163.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2254</c:v>
+                  <c:v>2247.0300000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2338</c:v>
+                  <c:v>2330.63</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2423</c:v>
+                  <c:v>2413.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2506</c:v>
+                  <c:v>2497.12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2587</c:v>
+                  <c:v>2578.56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2670</c:v>
+                  <c:v>2663.55</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2755</c:v>
+                  <c:v>2750.26</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2835</c:v>
+                  <c:v>2832.63</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2918</c:v>
+                  <c:v>2913.73</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3001</c:v>
+                  <c:v>2997.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3083</c:v>
+                  <c:v>3082.22</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3165</c:v>
+                  <c:v>3163.38</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3252</c:v>
+                  <c:v>3247.62</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3333</c:v>
+                  <c:v>3332.58</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3417</c:v>
+                  <c:v>3416.71</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3501</c:v>
+                  <c:v>3498.57</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3585</c:v>
+                  <c:v>3581.58</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3670</c:v>
+                  <c:v>3668.92</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3753</c:v>
+                  <c:v>3752.76</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3833</c:v>
+                  <c:v>3834.27</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3917</c:v>
+                  <c:v>3919.4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4001</c:v>
+                  <c:v>4002.48</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4085</c:v>
+                  <c:v>4086.88</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4171</c:v>
+                  <c:v>4170.8100000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4254</c:v>
+                  <c:v>4253.0200000000004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4335</c:v>
+                  <c:v>4337.68</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4420</c:v>
+                  <c:v>4420.55</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4502</c:v>
+                  <c:v>4503.21</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4584</c:v>
+                  <c:v>4587.33</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4668</c:v>
+                  <c:v>4670.46</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4752</c:v>
+                  <c:v>4750.3500000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4832</c:v>
+                  <c:v>4832.46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4915</c:v>
+                  <c:v>4916.8999999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4998</c:v>
+                  <c:v>4999.8500000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5084</c:v>
+                  <c:v>5080.8599999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5170</c:v>
+                  <c:v>5169.16</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5253</c:v>
+                  <c:v>5250.35</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5332</c:v>
+                  <c:v>5334.39</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5416</c:v>
+                  <c:v>5416.13</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5503</c:v>
+                  <c:v>5501.74</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5583</c:v>
+                  <c:v>5582.84</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5667</c:v>
+                  <c:v>5670.15</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5751</c:v>
+                  <c:v>5749.32</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5831</c:v>
+                  <c:v>5832.33</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5914</c:v>
+                  <c:v>5918.48</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6000</c:v>
+                  <c:v>5999.67</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6082</c:v>
+                  <c:v>6082.78</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6168</c:v>
+                  <c:v>6168.35</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6252</c:v>
+                  <c:v>6253.56</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6334</c:v>
+                  <c:v>6333.45</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6420</c:v>
+                  <c:v>6418.4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6505</c:v>
+                  <c:v>6500.55</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6583</c:v>
+                  <c:v>6582.02</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6666</c:v>
+                  <c:v>6665.23</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6750</c:v>
+                  <c:v>6749.62</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6834</c:v>
+                  <c:v>6828.29</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6919</c:v>
+                  <c:v>6915.87</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7003</c:v>
+                  <c:v>6997.72</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7086</c:v>
+                  <c:v>7076.92</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7171</c:v>
+                  <c:v>7166.21</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7257</c:v>
+                  <c:v>7250.94</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7340</c:v>
+                  <c:v>7330.48</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7423</c:v>
+                  <c:v>7417.08</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7508</c:v>
+                  <c:v>7500.75</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7588</c:v>
+                  <c:v>7582.18</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7672</c:v>
+                  <c:v>7664.59</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7756</c:v>
+                  <c:v>7750.31</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7835</c:v>
+                  <c:v>7831.51</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7918</c:v>
+                  <c:v>7913.06</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8001</c:v>
+                  <c:v>7996.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9765,259 +9765,259 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="85"/>
                 <c:pt idx="0">
-                  <c:v>1001</c:v>
+                  <c:v>998.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1087</c:v>
+                  <c:v>1081.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1171</c:v>
+                  <c:v>1163.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1252</c:v>
+                  <c:v>1248.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1333</c:v>
+                  <c:v>1330.43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1419</c:v>
+                  <c:v>1412.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1502</c:v>
+                  <c:v>1496.58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1582</c:v>
+                  <c:v>1577.64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1665</c:v>
+                  <c:v>1661.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1749</c:v>
+                  <c:v>1743.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1829</c:v>
+                  <c:v>1827.64</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1912</c:v>
+                  <c:v>1913.44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1998</c:v>
+                  <c:v>1997.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2084</c:v>
+                  <c:v>2081.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2169</c:v>
+                  <c:v>2166.21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2251</c:v>
+                  <c:v>2249.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2332</c:v>
+                  <c:v>2332.8200000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2418</c:v>
+                  <c:v>2417.62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2501</c:v>
+                  <c:v>2500.46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2584</c:v>
+                  <c:v>2585.5100000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2670</c:v>
+                  <c:v>2670.83</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2753</c:v>
+                  <c:v>2751.68</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2835</c:v>
+                  <c:v>2835.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2921</c:v>
+                  <c:v>2920.38</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3006</c:v>
+                  <c:v>3006.13</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3090</c:v>
+                  <c:v>3086.84</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3174</c:v>
+                  <c:v>3172.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3257</c:v>
+                  <c:v>3255.56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3338</c:v>
+                  <c:v>3338.67</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3423</c:v>
+                  <c:v>3420.83</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3504</c:v>
+                  <c:v>3505.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3584</c:v>
+                  <c:v>3585.52</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3668</c:v>
+                  <c:v>3669.79</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3750</c:v>
+                  <c:v>3754.59</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3831</c:v>
+                  <c:v>3834.57</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3914</c:v>
+                  <c:v>3919.52</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3998</c:v>
+                  <c:v>4003.56</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4080</c:v>
+                  <c:v>4086.43</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4166</c:v>
+                  <c:v>4173.54</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4250</c:v>
+                  <c:v>4252.17</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4331</c:v>
+                  <c:v>4335.9799999999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4416</c:v>
+                  <c:v>4419.51</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4502</c:v>
+                  <c:v>4503.17</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4581</c:v>
+                  <c:v>4581.87</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4668</c:v>
+                  <c:v>4668.78</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4752</c:v>
+                  <c:v>4750.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4834</c:v>
+                  <c:v>4831.16</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4919</c:v>
+                  <c:v>4915.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5004</c:v>
+                  <c:v>5000.3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5087</c:v>
+                  <c:v>5083.6099999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5173</c:v>
+                  <c:v>5169.54</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5256</c:v>
+                  <c:v>5251.38</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5337</c:v>
+                  <c:v>5336.72</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5422</c:v>
+                  <c:v>5422.3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5507</c:v>
+                  <c:v>5503.9</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5587</c:v>
+                  <c:v>5585.79</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>5670</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5755</c:v>
+                  <c:v>5752.14</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5836</c:v>
+                  <c:v>5833.6</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5921</c:v>
+                  <c:v>5916.04</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6005</c:v>
+                  <c:v>6000.58</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6086</c:v>
+                  <c:v>6083.93</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6172</c:v>
+                  <c:v>6170.22</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6256</c:v>
+                  <c:v>6255.45</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6336</c:v>
+                  <c:v>6338.39</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6420</c:v>
+                  <c:v>6422.36</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6507</c:v>
+                  <c:v>6506.75</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6586</c:v>
+                  <c:v>6588.97</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6668</c:v>
+                  <c:v>6671.92</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6752</c:v>
+                  <c:v>6755.4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6834</c:v>
+                  <c:v>6837.07</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6918</c:v>
+                  <c:v>6921.89</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7002</c:v>
+                  <c:v>7005.29</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7083</c:v>
+                  <c:v>7089.58</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7167</c:v>
+                  <c:v>7173.55</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7253</c:v>
+                  <c:v>7258.74</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7334</c:v>
+                  <c:v>7341.54</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7417</c:v>
+                  <c:v>7425.64</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7501</c:v>
+                  <c:v>7508.25</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7583</c:v>
+                  <c:v>7591.02</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7666</c:v>
+                  <c:v>7676.45</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7750</c:v>
+                  <c:v>7758.21</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7831</c:v>
+                  <c:v>7843.4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7915</c:v>
+                  <c:v>7927.29</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7998</c:v>
+                  <c:v>8008.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27997,7 +27997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB72A6E-B3A1-43EF-8A52-6E54C34D6072}">
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J86"/>
     </sheetView>
   </sheetViews>
@@ -28046,28 +28046,28 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>1002</v>
+        <v>1005.36</v>
       </c>
       <c r="D2">
-        <v>1002</v>
+        <v>1000.69</v>
       </c>
       <c r="E2">
-        <v>1005</v>
+        <v>999.39</v>
       </c>
       <c r="F2">
-        <v>1001</v>
+        <v>998.69</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -28075,31 +28075,31 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>1083</v>
+        <v>1083.33</v>
       </c>
       <c r="C3">
-        <v>1084</v>
+        <v>1088.52</v>
       </c>
       <c r="D3">
-        <v>1084</v>
+        <v>1081.3800000000001</v>
       </c>
       <c r="E3">
-        <v>1088</v>
+        <v>1083.22</v>
       </c>
       <c r="F3">
-        <v>1087</v>
+        <v>1081.29</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -28107,31 +28107,31 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>1167</v>
+        <v>1166.67</v>
       </c>
       <c r="C4">
-        <v>1167</v>
+        <v>1172.22</v>
       </c>
       <c r="D4">
-        <v>1167</v>
+        <v>1165.8499999999999</v>
       </c>
       <c r="E4">
-        <v>1172</v>
+        <v>1166.18</v>
       </c>
       <c r="F4">
-        <v>1171</v>
+        <v>1163.83</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -28142,28 +28142,28 @@
         <v>1250</v>
       </c>
       <c r="C5">
-        <v>1253</v>
+        <v>1257.21</v>
       </c>
       <c r="D5">
-        <v>1253</v>
+        <v>1249.8499999999999</v>
       </c>
       <c r="E5">
-        <v>1255</v>
+        <v>1252.77</v>
       </c>
       <c r="F5">
-        <v>1252</v>
+        <v>1248.46</v>
       </c>
       <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
       <c r="J5">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -28171,31 +28171,31 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>1333</v>
+        <v>1333.33</v>
       </c>
       <c r="C6">
-        <v>1333</v>
+        <v>1338.91</v>
       </c>
       <c r="D6">
-        <v>1336</v>
+        <v>1330.66</v>
       </c>
       <c r="E6">
-        <v>1337</v>
+        <v>1333.69</v>
       </c>
       <c r="F6">
-        <v>1333</v>
+        <v>1330.43</v>
       </c>
       <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>-2</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
       <c r="J6">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -28203,31 +28203,31 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>1417</v>
+        <v>1416.67</v>
       </c>
       <c r="C7">
-        <v>1416</v>
+        <v>1418.26</v>
       </c>
       <c r="D7">
-        <v>1420</v>
+        <v>1413.24</v>
       </c>
       <c r="E7">
-        <v>1423</v>
+        <v>1416.08</v>
       </c>
       <c r="F7">
-        <v>1419</v>
+        <v>1412.06</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -28238,28 +28238,28 @@
         <v>1500</v>
       </c>
       <c r="C8">
-        <v>1502</v>
+        <v>1502.51</v>
       </c>
       <c r="D8">
-        <v>1503</v>
+        <v>1498.4</v>
       </c>
       <c r="E8">
-        <v>1504</v>
+        <v>1501.58</v>
       </c>
       <c r="F8">
-        <v>1502</v>
+        <v>1496.58</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
       <c r="J8">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -28267,31 +28267,31 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>1583</v>
+        <v>1583.33</v>
       </c>
       <c r="C9">
-        <v>1583</v>
+        <v>1584.27</v>
       </c>
       <c r="D9">
-        <v>1585</v>
+        <v>1581.15</v>
       </c>
       <c r="E9">
-        <v>1585</v>
+        <v>1581.18</v>
       </c>
       <c r="F9">
-        <v>1582</v>
+        <v>1577.64</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -28299,31 +28299,31 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>1667</v>
+        <v>1666.67</v>
       </c>
       <c r="C10">
-        <v>1666</v>
+        <v>1669.04</v>
       </c>
       <c r="D10">
-        <v>1667</v>
+        <v>1665.53</v>
       </c>
       <c r="E10">
-        <v>1668</v>
+        <v>1664.03</v>
       </c>
       <c r="F10">
-        <v>1665</v>
+        <v>1661.8</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J10">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -28334,28 +28334,28 @@
         <v>1750</v>
       </c>
       <c r="C11">
-        <v>1751</v>
+        <v>1752.21</v>
       </c>
       <c r="D11">
-        <v>1752</v>
+        <v>1749.02</v>
       </c>
       <c r="E11">
-        <v>1751</v>
+        <v>1749.14</v>
       </c>
       <c r="F11">
-        <v>1749</v>
+        <v>1743.89</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -28363,31 +28363,31 @@
         <v>46</v>
       </c>
       <c r="B12">
-        <v>1833</v>
+        <v>1833.33</v>
       </c>
       <c r="C12">
-        <v>1833</v>
+        <v>1832.82</v>
       </c>
       <c r="D12">
-        <v>1834</v>
+        <v>1831.68</v>
       </c>
       <c r="E12">
-        <v>1834</v>
+        <v>1835.11</v>
       </c>
       <c r="F12">
-        <v>1829</v>
+        <v>1827.64</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -28395,31 +28395,31 @@
         <v>47</v>
       </c>
       <c r="B13">
-        <v>1917</v>
+        <v>1916.67</v>
       </c>
       <c r="C13">
-        <v>1914</v>
+        <v>1915.69</v>
       </c>
       <c r="D13">
-        <v>1917</v>
+        <v>1914.72</v>
       </c>
       <c r="E13">
-        <v>1917</v>
+        <v>1912.95</v>
       </c>
       <c r="F13">
-        <v>1912</v>
+        <v>1913.44</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
         <v>-3</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
-        <v>-5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -28430,25 +28430,25 @@
         <v>2000</v>
       </c>
       <c r="C14">
-        <v>2001</v>
+        <v>2001.01</v>
       </c>
       <c r="D14">
-        <v>2005</v>
+        <v>2002.01</v>
       </c>
       <c r="E14">
-        <v>2002</v>
+        <v>1998.23</v>
       </c>
       <c r="F14">
-        <v>1998</v>
+        <v>1997.12</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J14">
         <v>-2</v>
@@ -28459,31 +28459,31 @@
         <v>49</v>
       </c>
       <c r="B15">
-        <v>2083</v>
+        <v>2083.33</v>
       </c>
       <c r="C15">
-        <v>2086</v>
+        <v>2087.73</v>
       </c>
       <c r="D15">
-        <v>2089</v>
+        <v>2086.69</v>
       </c>
       <c r="E15">
-        <v>2086</v>
+        <v>2082.14</v>
       </c>
       <c r="F15">
-        <v>2084</v>
+        <v>2081.94</v>
       </c>
       <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>6</v>
-      </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -28491,31 +28491,31 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>2167</v>
+        <v>2166.67</v>
       </c>
       <c r="C16">
-        <v>2169</v>
+        <v>2170.13</v>
       </c>
       <c r="D16">
-        <v>2173</v>
+        <v>2170.38</v>
       </c>
       <c r="E16">
-        <v>2171</v>
+        <v>2163.75</v>
       </c>
       <c r="F16">
-        <v>2169</v>
+        <v>2166.21</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -28526,28 +28526,28 @@
         <v>2250</v>
       </c>
       <c r="C17">
-        <v>2252</v>
+        <v>2255.14</v>
       </c>
       <c r="D17">
-        <v>2256</v>
+        <v>2254.3200000000002</v>
       </c>
       <c r="E17">
-        <v>2254</v>
+        <v>2247.0300000000002</v>
       </c>
       <c r="F17">
-        <v>2251</v>
+        <v>2249.1999999999998</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -28558,31 +28558,31 @@
         <v>52</v>
       </c>
       <c r="B18">
-        <v>2333</v>
+        <v>2333.33</v>
       </c>
       <c r="C18">
-        <v>2336</v>
+        <v>2339.63</v>
       </c>
       <c r="D18">
-        <v>2337</v>
+        <v>2334.67</v>
       </c>
       <c r="E18">
-        <v>2338</v>
+        <v>2330.63</v>
       </c>
       <c r="F18">
-        <v>2332</v>
+        <v>2332.8200000000002</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -28590,28 +28590,28 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>2417</v>
+        <v>2416.67</v>
       </c>
       <c r="C19">
-        <v>2419</v>
+        <v>2420.02</v>
       </c>
       <c r="D19">
-        <v>2420</v>
+        <v>2418.84</v>
       </c>
       <c r="E19">
-        <v>2423</v>
+        <v>2413.15</v>
       </c>
       <c r="F19">
-        <v>2418</v>
+        <v>2417.62</v>
       </c>
       <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
       <c r="I19">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -28625,28 +28625,28 @@
         <v>2500</v>
       </c>
       <c r="C20">
-        <v>2504</v>
+        <v>2503.98</v>
       </c>
       <c r="D20">
-        <v>2504</v>
+        <v>2501.2199999999998</v>
       </c>
       <c r="E20">
-        <v>2506</v>
+        <v>2497.12</v>
       </c>
       <c r="F20">
-        <v>2501</v>
+        <v>2500.46</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -28654,31 +28654,31 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>2583</v>
+        <v>2583.33</v>
       </c>
       <c r="C21">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="D21">
-        <v>2588</v>
+        <v>2585.04</v>
       </c>
       <c r="E21">
-        <v>2587</v>
+        <v>2578.56</v>
       </c>
       <c r="F21">
-        <v>2584</v>
+        <v>2585.5100000000002</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -28686,31 +28686,31 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <v>2667</v>
+        <v>2666.67</v>
       </c>
       <c r="C22">
-        <v>2668</v>
+        <v>2669.42</v>
       </c>
       <c r="D22">
-        <v>2672</v>
+        <v>2668.89</v>
       </c>
       <c r="E22">
-        <v>2670</v>
+        <v>2663.55</v>
       </c>
       <c r="F22">
-        <v>2670</v>
+        <v>2670.83</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -28721,28 +28721,28 @@
         <v>2750</v>
       </c>
       <c r="C23">
-        <v>2752</v>
+        <v>2749.53</v>
       </c>
       <c r="D23">
-        <v>2756</v>
+        <v>2751.27</v>
       </c>
       <c r="E23">
-        <v>2755</v>
+        <v>2750.26</v>
       </c>
       <c r="F23">
-        <v>2753</v>
+        <v>2751.68</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>2</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -28750,28 +28750,28 @@
         <v>58</v>
       </c>
       <c r="B24">
-        <v>2833</v>
+        <v>2833.33</v>
       </c>
       <c r="C24">
-        <v>2836</v>
+        <v>2830.87</v>
       </c>
       <c r="D24">
-        <v>2839</v>
+        <v>2836.11</v>
       </c>
       <c r="E24">
-        <v>2835</v>
+        <v>2832.63</v>
       </c>
       <c r="F24">
-        <v>2835</v>
+        <v>2835.08</v>
       </c>
       <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -28782,28 +28782,28 @@
         <v>59</v>
       </c>
       <c r="B25">
-        <v>2917</v>
+        <v>2916.67</v>
       </c>
       <c r="C25">
-        <v>2916</v>
+        <v>2913.26</v>
       </c>
       <c r="D25">
-        <v>2921</v>
+        <v>2918.89</v>
       </c>
       <c r="E25">
-        <v>2918</v>
+        <v>2913.73</v>
       </c>
       <c r="F25">
-        <v>2921</v>
+        <v>2920.38</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -28817,25 +28817,25 @@
         <v>3000</v>
       </c>
       <c r="C26">
-        <v>3001</v>
+        <v>2996.62</v>
       </c>
       <c r="D26">
-        <v>3006</v>
+        <v>3002.89</v>
       </c>
       <c r="E26">
-        <v>3001</v>
+        <v>2997.8</v>
       </c>
       <c r="F26">
-        <v>3006</v>
+        <v>3006.13</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -28846,31 +28846,31 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <v>3083</v>
+        <v>3083.33</v>
       </c>
       <c r="C27">
-        <v>3087</v>
+        <v>3084.18</v>
       </c>
       <c r="D27">
-        <v>3089</v>
+        <v>3085.96</v>
       </c>
       <c r="E27">
-        <v>3083</v>
+        <v>3082.22</v>
       </c>
       <c r="F27">
-        <v>3090</v>
+        <v>3086.84</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -28878,31 +28878,31 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>3167</v>
+        <v>3166.67</v>
       </c>
       <c r="C28">
-        <v>3170</v>
+        <v>3168.92</v>
       </c>
       <c r="D28">
-        <v>3171</v>
+        <v>3169.6</v>
       </c>
       <c r="E28">
-        <v>3165</v>
+        <v>3163.38</v>
       </c>
       <c r="F28">
-        <v>3174</v>
+        <v>3172.26</v>
       </c>
       <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
         <v>3</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
       </c>
       <c r="I28">
         <v>-2</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -28913,16 +28913,16 @@
         <v>3250</v>
       </c>
       <c r="C29">
-        <v>3253</v>
+        <v>3253.18</v>
       </c>
       <c r="D29">
-        <v>3255</v>
+        <v>3254.71</v>
       </c>
       <c r="E29">
-        <v>3252</v>
+        <v>3247.62</v>
       </c>
       <c r="F29">
-        <v>3257</v>
+        <v>3255.56</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -28931,10 +28931,10 @@
         <v>5</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -28942,25 +28942,25 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>3333</v>
+        <v>3333.33</v>
       </c>
       <c r="C30">
-        <v>3336</v>
+        <v>3332.87</v>
       </c>
       <c r="D30">
-        <v>3336</v>
+        <v>3335.23</v>
       </c>
       <c r="E30">
-        <v>3333</v>
+        <v>3332.58</v>
       </c>
       <c r="F30">
-        <v>3338</v>
+        <v>3338.67</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -28974,22 +28974,22 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>3417</v>
+        <v>3416.67</v>
       </c>
       <c r="C31">
-        <v>3421</v>
+        <v>3415.81</v>
       </c>
       <c r="D31">
-        <v>3419</v>
+        <v>3418.94</v>
       </c>
       <c r="E31">
-        <v>3417</v>
+        <v>3416.71</v>
       </c>
       <c r="F31">
-        <v>3423</v>
+        <v>3420.83</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -29009,28 +29009,28 @@
         <v>3500</v>
       </c>
       <c r="C32">
-        <v>3504</v>
+        <v>3500.55</v>
       </c>
       <c r="D32">
-        <v>3503</v>
+        <v>3500.66</v>
       </c>
       <c r="E32">
-        <v>3501</v>
+        <v>3498.57</v>
       </c>
       <c r="F32">
-        <v>3504</v>
+        <v>3505.4</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -29038,31 +29038,31 @@
         <v>67</v>
       </c>
       <c r="B33">
-        <v>3583</v>
+        <v>3583.33</v>
       </c>
       <c r="C33">
-        <v>3587</v>
+        <v>3583.89</v>
       </c>
       <c r="D33">
-        <v>3585</v>
+        <v>3582.34</v>
       </c>
       <c r="E33">
-        <v>3585</v>
+        <v>3581.58</v>
       </c>
       <c r="F33">
-        <v>3584</v>
+        <v>3585.52</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>-1</v>
+      </c>
+      <c r="J33">
         <v>2</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -29070,31 +29070,31 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>3667</v>
+        <v>3666.67</v>
       </c>
       <c r="C34">
-        <v>3670</v>
+        <v>3665.79</v>
       </c>
       <c r="D34">
-        <v>3668</v>
+        <v>3664.27</v>
       </c>
       <c r="E34">
-        <v>3670</v>
+        <v>3668.92</v>
       </c>
       <c r="F34">
-        <v>3668</v>
+        <v>3669.79</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
         <v>3</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -29105,28 +29105,28 @@
         <v>3750</v>
       </c>
       <c r="C35">
-        <v>3753</v>
+        <v>3748.55</v>
       </c>
       <c r="D35">
-        <v>3751</v>
+        <v>3748.68</v>
       </c>
       <c r="E35">
-        <v>3753</v>
+        <v>3752.76</v>
       </c>
       <c r="F35">
-        <v>3750</v>
+        <v>3754.59</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>3</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -29134,31 +29134,31 @@
         <v>70</v>
       </c>
       <c r="B36">
-        <v>3833</v>
+        <v>3833.33</v>
       </c>
       <c r="C36">
-        <v>3835</v>
+        <v>3832</v>
       </c>
       <c r="D36">
-        <v>3833</v>
+        <v>3830.93</v>
       </c>
       <c r="E36">
-        <v>3833</v>
+        <v>3834.27</v>
       </c>
       <c r="F36">
-        <v>3831</v>
+        <v>3834.57</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -29166,31 +29166,31 @@
         <v>71</v>
       </c>
       <c r="B37">
-        <v>3917</v>
+        <v>3916.67</v>
       </c>
       <c r="C37">
-        <v>3917</v>
+        <v>3915.04</v>
       </c>
       <c r="D37">
-        <v>3914</v>
+        <v>3915.63</v>
       </c>
       <c r="E37">
-        <v>3917</v>
+        <v>3919.4</v>
       </c>
       <c r="F37">
-        <v>3914</v>
+        <v>3919.52</v>
       </c>
       <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>-3</v>
-      </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -29201,28 +29201,28 @@
         <v>4000</v>
       </c>
       <c r="C38">
-        <v>3999</v>
+        <v>3998.42</v>
       </c>
       <c r="D38">
-        <v>3999</v>
+        <v>4000.34</v>
       </c>
       <c r="E38">
-        <v>4001</v>
+        <v>4002.48</v>
       </c>
       <c r="F38">
-        <v>3998</v>
+        <v>4003.56</v>
       </c>
       <c r="G38">
         <v>-1</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -29230,31 +29230,31 @@
         <v>73</v>
       </c>
       <c r="B39">
-        <v>4083</v>
+        <v>4083.33</v>
       </c>
       <c r="C39">
-        <v>4083</v>
+        <v>4083.68</v>
       </c>
       <c r="D39">
-        <v>4082</v>
+        <v>4085.71</v>
       </c>
       <c r="E39">
-        <v>4085</v>
+        <v>4086.88</v>
       </c>
       <c r="F39">
-        <v>4080</v>
+        <v>4086.43</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J39">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -29262,31 +29262,31 @@
         <v>74</v>
       </c>
       <c r="B40">
-        <v>4167</v>
+        <v>4166.66</v>
       </c>
       <c r="C40">
-        <v>4166</v>
+        <v>4165.54</v>
       </c>
       <c r="D40">
-        <v>4166</v>
+        <v>4169.29</v>
       </c>
       <c r="E40">
-        <v>4171</v>
+        <v>4170.8100000000004</v>
       </c>
       <c r="F40">
-        <v>4166</v>
+        <v>4173.54</v>
       </c>
       <c r="G40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>4</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -29297,28 +29297,28 @@
         <v>4250</v>
       </c>
       <c r="C41">
-        <v>4251</v>
+        <v>4246.71</v>
       </c>
       <c r="D41">
-        <v>4249</v>
+        <v>4253.2299999999996</v>
       </c>
       <c r="E41">
-        <v>4254</v>
+        <v>4253.0200000000004</v>
       </c>
       <c r="F41">
-        <v>4250</v>
+        <v>4252.17</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -29326,31 +29326,31 @@
         <v>76</v>
       </c>
       <c r="B42">
-        <v>4333</v>
+        <v>4333.33</v>
       </c>
       <c r="C42">
-        <v>4335</v>
+        <v>4331.28</v>
       </c>
       <c r="D42">
-        <v>4329</v>
+        <v>4336.21</v>
       </c>
       <c r="E42">
-        <v>4335</v>
+        <v>4337.68</v>
       </c>
       <c r="F42">
-        <v>4331</v>
+        <v>4335.9799999999996</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H42">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -29358,31 +29358,31 @@
         <v>77</v>
       </c>
       <c r="B43">
-        <v>4417</v>
+        <v>4416.67</v>
       </c>
       <c r="C43">
-        <v>4419</v>
+        <v>4416.21</v>
       </c>
       <c r="D43">
-        <v>4412</v>
+        <v>4418.54</v>
       </c>
       <c r="E43">
-        <v>4420</v>
+        <v>4420.55</v>
       </c>
       <c r="F43">
-        <v>4416</v>
+        <v>4419.51</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>2</v>
       </c>
-      <c r="H43">
-        <v>-5</v>
-      </c>
       <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
         <v>3</v>
-      </c>
-      <c r="J43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -29393,28 +29393,28 @@
         <v>4500</v>
       </c>
       <c r="C44">
-        <v>4503</v>
+        <v>4500.26</v>
       </c>
       <c r="D44">
-        <v>4496</v>
+        <v>4501.8999999999996</v>
       </c>
       <c r="E44">
-        <v>4502</v>
+        <v>4503.21</v>
       </c>
       <c r="F44">
-        <v>4502</v>
+        <v>4503.17</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>3</v>
       </c>
-      <c r="H44">
-        <v>-4</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
       <c r="J44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -29422,31 +29422,31 @@
         <v>79</v>
       </c>
       <c r="B45">
-        <v>4583</v>
+        <v>4583.33</v>
       </c>
       <c r="C45">
-        <v>4587</v>
+        <v>4581.43</v>
       </c>
       <c r="D45">
-        <v>4579</v>
+        <v>4581.3900000000003</v>
       </c>
       <c r="E45">
-        <v>4584</v>
+        <v>4587.33</v>
       </c>
       <c r="F45">
-        <v>4581</v>
+        <v>4581.87</v>
       </c>
       <c r="G45">
+        <v>-1</v>
+      </c>
+      <c r="H45">
+        <v>-1</v>
+      </c>
+      <c r="I45">
         <v>4</v>
       </c>
-      <c r="H45">
-        <v>-4</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
       <c r="J45">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -29454,31 +29454,31 @@
         <v>80</v>
       </c>
       <c r="B46">
-        <v>4667</v>
+        <v>4666.67</v>
       </c>
       <c r="C46">
-        <v>4673</v>
+        <v>4665.59</v>
       </c>
       <c r="D46">
-        <v>4664</v>
+        <v>4665.04</v>
       </c>
       <c r="E46">
-        <v>4668</v>
+        <v>4670.46</v>
       </c>
       <c r="F46">
-        <v>4668</v>
+        <v>4668.78</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -29489,28 +29489,28 @@
         <v>4750</v>
       </c>
       <c r="C47">
-        <v>4753</v>
+        <v>4746.93</v>
       </c>
       <c r="D47">
-        <v>4748</v>
+        <v>4747.9399999999996</v>
       </c>
       <c r="E47">
-        <v>4752</v>
+        <v>4750.3500000000004</v>
       </c>
       <c r="F47">
-        <v>4752</v>
+        <v>4750.1499999999996</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H47">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -29518,31 +29518,31 @@
         <v>82</v>
       </c>
       <c r="B48">
-        <v>4833</v>
+        <v>4833.33</v>
       </c>
       <c r="C48">
-        <v>4835</v>
+        <v>4829.74</v>
       </c>
       <c r="D48">
-        <v>4830</v>
+        <v>4830.6000000000004</v>
       </c>
       <c r="E48">
-        <v>4832</v>
+        <v>4832.46</v>
       </c>
       <c r="F48">
-        <v>4834</v>
+        <v>4831.16</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="H48">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>-1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -29550,31 +29550,31 @@
         <v>83</v>
       </c>
       <c r="B49">
-        <v>4917</v>
+        <v>4916.67</v>
       </c>
       <c r="C49">
-        <v>4920</v>
+        <v>4913.75</v>
       </c>
       <c r="D49">
-        <v>4913</v>
+        <v>4914.88</v>
       </c>
       <c r="E49">
-        <v>4915</v>
+        <v>4916.8999999999996</v>
       </c>
       <c r="F49">
-        <v>4919</v>
+        <v>4915.6000000000004</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H49">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="I49">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -29585,28 +29585,28 @@
         <v>5000</v>
       </c>
       <c r="C50">
-        <v>5001</v>
+        <v>4998.92</v>
       </c>
       <c r="D50">
-        <v>4998</v>
+        <v>4998.51</v>
       </c>
       <c r="E50">
-        <v>4998</v>
+        <v>4999.8500000000004</v>
       </c>
       <c r="F50">
-        <v>5004</v>
+        <v>5000.3</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -29614,31 +29614,31 @@
         <v>85</v>
       </c>
       <c r="B51">
-        <v>5083</v>
+        <v>5083.33</v>
       </c>
       <c r="C51">
-        <v>5082</v>
+        <v>5081.87</v>
       </c>
       <c r="D51">
-        <v>5084</v>
+        <v>5085.0200000000004</v>
       </c>
       <c r="E51">
-        <v>5084</v>
+        <v>5080.8599999999997</v>
       </c>
       <c r="F51">
-        <v>5087</v>
+        <v>5083.6099999999997</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
         <v>-1</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -29646,31 +29646,31 @@
         <v>86</v>
       </c>
       <c r="B52">
-        <v>5167</v>
+        <v>5166.67</v>
       </c>
       <c r="C52">
-        <v>5169</v>
+        <v>5167.08</v>
       </c>
       <c r="D52">
-        <v>5169</v>
+        <v>5170.54</v>
       </c>
       <c r="E52">
-        <v>5170</v>
+        <v>5169.16</v>
       </c>
       <c r="F52">
-        <v>5173</v>
+        <v>5169.54</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>4</v>
+      </c>
+      <c r="I52">
         <v>2</v>
       </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
+      <c r="J52">
         <v>3</v>
-      </c>
-      <c r="J52">
-        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -29681,28 +29681,28 @@
         <v>5250</v>
       </c>
       <c r="C53">
-        <v>5253</v>
+        <v>5249.77</v>
       </c>
       <c r="D53">
-        <v>5252</v>
+        <v>5252.01</v>
       </c>
       <c r="E53">
-        <v>5253</v>
+        <v>5250.35</v>
       </c>
       <c r="F53">
-        <v>5256</v>
+        <v>5251.38</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -29710,31 +29710,31 @@
         <v>88</v>
       </c>
       <c r="B54">
-        <v>5333</v>
+        <v>5333.33</v>
       </c>
       <c r="C54">
-        <v>5336</v>
+        <v>5332.45</v>
       </c>
       <c r="D54">
-        <v>5333</v>
+        <v>5335.22</v>
       </c>
       <c r="E54">
-        <v>5332</v>
+        <v>5334.39</v>
       </c>
       <c r="F54">
-        <v>5337</v>
+        <v>5336.72</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
         <v>3</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>-1</v>
-      </c>
-      <c r="J54">
-        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -29742,31 +29742,31 @@
         <v>89</v>
       </c>
       <c r="B55">
-        <v>5417</v>
+        <v>5416.67</v>
       </c>
       <c r="C55">
-        <v>5419</v>
+        <v>5418.02</v>
       </c>
       <c r="D55">
-        <v>5417</v>
+        <v>5419.62</v>
       </c>
       <c r="E55">
-        <v>5416</v>
+        <v>5416.13</v>
       </c>
       <c r="F55">
-        <v>5422</v>
+        <v>5422.3</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>-1</v>
-      </c>
       <c r="J55">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -29777,28 +29777,28 @@
         <v>5500</v>
       </c>
       <c r="C56">
-        <v>5504</v>
+        <v>5499.31</v>
       </c>
       <c r="D56">
-        <v>5500</v>
+        <v>5498.07</v>
       </c>
       <c r="E56">
-        <v>5503</v>
+        <v>5501.74</v>
       </c>
       <c r="F56">
-        <v>5507</v>
+        <v>5503.9</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>-1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
         <v>4</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-      <c r="J56">
-        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -29806,31 +29806,31 @@
         <v>91</v>
       </c>
       <c r="B57">
-        <v>5583</v>
+        <v>5583.33</v>
       </c>
       <c r="C57">
-        <v>5587</v>
+        <v>5582.9</v>
       </c>
       <c r="D57">
-        <v>5583</v>
+        <v>5581.3</v>
       </c>
       <c r="E57">
-        <v>5583</v>
+        <v>5582.84</v>
       </c>
       <c r="F57">
-        <v>5587</v>
+        <v>5585.79</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -29838,28 +29838,28 @@
         <v>92</v>
       </c>
       <c r="B58">
-        <v>5667</v>
+        <v>5666.67</v>
       </c>
       <c r="C58">
-        <v>5675</v>
+        <v>5669.35</v>
       </c>
       <c r="D58">
-        <v>5667</v>
+        <v>5666.53</v>
       </c>
       <c r="E58">
-        <v>5667</v>
+        <v>5670.15</v>
       </c>
       <c r="F58">
         <v>5670</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J58">
         <v>3</v>
@@ -29873,28 +29873,28 @@
         <v>5750</v>
       </c>
       <c r="C59">
-        <v>5756</v>
+        <v>5753.48</v>
       </c>
       <c r="D59">
-        <v>5750</v>
+        <v>5747.52</v>
       </c>
       <c r="E59">
-        <v>5751</v>
+        <v>5749.32</v>
       </c>
       <c r="F59">
-        <v>5755</v>
+        <v>5752.14</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H59">
+        <v>-1</v>
+      </c>
+      <c r="I59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
       <c r="J59">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -29902,31 +29902,31 @@
         <v>94</v>
       </c>
       <c r="B60">
-        <v>5833</v>
+        <v>5833.33</v>
       </c>
       <c r="C60">
-        <v>5839</v>
+        <v>5834.63</v>
       </c>
       <c r="D60">
-        <v>5832</v>
+        <v>5832.01</v>
       </c>
       <c r="E60">
-        <v>5831</v>
+        <v>5832.33</v>
       </c>
       <c r="F60">
-        <v>5836</v>
+        <v>5833.6</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -29934,31 +29934,31 @@
         <v>95</v>
       </c>
       <c r="B61">
-        <v>5917</v>
+        <v>5916.67</v>
       </c>
       <c r="C61">
-        <v>5925</v>
+        <v>5919.29</v>
       </c>
       <c r="D61">
-        <v>5916</v>
+        <v>5914.06</v>
       </c>
       <c r="E61">
-        <v>5914</v>
+        <v>5918.48</v>
       </c>
       <c r="F61">
-        <v>5921</v>
+        <v>5916.04</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H61">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I61">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -29969,19 +29969,19 @@
         <v>6000</v>
       </c>
       <c r="C62">
-        <v>6006</v>
+        <v>6002.18</v>
       </c>
       <c r="D62">
-        <v>5999</v>
+        <v>5998.31</v>
       </c>
       <c r="E62">
-        <v>6000</v>
+        <v>5999.67</v>
       </c>
       <c r="F62">
-        <v>6005</v>
+        <v>6000.58</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H62">
         <v>-1</v>
@@ -29990,7 +29990,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -29998,31 +29998,31 @@
         <v>97</v>
       </c>
       <c r="B63">
-        <v>6083</v>
+        <v>6083.34</v>
       </c>
       <c r="C63">
-        <v>6087</v>
+        <v>6083.87</v>
       </c>
       <c r="D63">
-        <v>6083</v>
+        <v>6080.4</v>
       </c>
       <c r="E63">
-        <v>6082</v>
+        <v>6082.78</v>
       </c>
       <c r="F63">
-        <v>6086</v>
+        <v>6083.93</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63">
+        <v>-2</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>-1</v>
-      </c>
       <c r="J63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -30030,31 +30030,31 @@
         <v>98</v>
       </c>
       <c r="B64">
-        <v>6167</v>
+        <v>6166.67</v>
       </c>
       <c r="C64">
-        <v>6172</v>
+        <v>6172.21</v>
       </c>
       <c r="D64">
-        <v>6170</v>
+        <v>6164.83</v>
       </c>
       <c r="E64">
-        <v>6168</v>
+        <v>6168.35</v>
       </c>
       <c r="F64">
-        <v>6172</v>
+        <v>6170.22</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -30065,28 +30065,28 @@
         <v>6250</v>
       </c>
       <c r="C65">
-        <v>6256</v>
+        <v>6257.08</v>
       </c>
       <c r="D65">
-        <v>6253</v>
+        <v>6248.87</v>
       </c>
       <c r="E65">
-        <v>6252</v>
+        <v>6253.56</v>
       </c>
       <c r="F65">
-        <v>6256</v>
+        <v>6255.45</v>
       </c>
       <c r="G65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -30094,31 +30094,31 @@
         <v>100</v>
       </c>
       <c r="B66">
-        <v>6333</v>
+        <v>6333.34</v>
       </c>
       <c r="C66">
-        <v>6335</v>
+        <v>6337.83</v>
       </c>
       <c r="D66">
-        <v>6334</v>
+        <v>6329.48</v>
       </c>
       <c r="E66">
-        <v>6334</v>
+        <v>6333.45</v>
       </c>
       <c r="F66">
-        <v>6336</v>
+        <v>6338.39</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -30126,31 +30126,31 @@
         <v>101</v>
       </c>
       <c r="B67">
-        <v>6417</v>
+        <v>6416.67</v>
       </c>
       <c r="C67">
-        <v>6420</v>
+        <v>6423.77</v>
       </c>
       <c r="D67">
-        <v>6418</v>
+        <v>6413.28</v>
       </c>
       <c r="E67">
-        <v>6420</v>
+        <v>6418.4</v>
       </c>
       <c r="F67">
-        <v>6420</v>
+        <v>6422.36</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -30161,25 +30161,25 @@
         <v>6500</v>
       </c>
       <c r="C68">
-        <v>6503</v>
+        <v>6508.8</v>
       </c>
       <c r="D68">
-        <v>6501</v>
+        <v>6496.8</v>
       </c>
       <c r="E68">
-        <v>6505</v>
+        <v>6500.55</v>
       </c>
       <c r="F68">
-        <v>6507</v>
+        <v>6506.75</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H68">
+        <v>-2</v>
+      </c>
+      <c r="I68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>5</v>
       </c>
       <c r="J68">
         <v>7</v>
@@ -30190,31 +30190,31 @@
         <v>103</v>
       </c>
       <c r="B69">
-        <v>6583</v>
+        <v>6583.34</v>
       </c>
       <c r="C69">
-        <v>6582</v>
+        <v>6590.74</v>
       </c>
       <c r="D69">
-        <v>6582</v>
+        <v>6580.22</v>
       </c>
       <c r="E69">
-        <v>6583</v>
+        <v>6582.02</v>
       </c>
       <c r="F69">
-        <v>6586</v>
+        <v>6588.97</v>
       </c>
       <c r="G69">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H69">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -30222,31 +30222,31 @@
         <v>104</v>
       </c>
       <c r="B70">
-        <v>6667</v>
+        <v>6666.67</v>
       </c>
       <c r="C70">
-        <v>6666</v>
+        <v>6676.37</v>
       </c>
       <c r="D70">
-        <v>6666</v>
+        <v>6667.96</v>
       </c>
       <c r="E70">
-        <v>6666</v>
+        <v>6665.23</v>
       </c>
       <c r="F70">
-        <v>6668</v>
+        <v>6671.92</v>
       </c>
       <c r="G70">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H70">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -30257,19 +30257,19 @@
         <v>6750</v>
       </c>
       <c r="C71">
-        <v>6751</v>
+        <v>6758.63</v>
       </c>
       <c r="D71">
-        <v>6749</v>
+        <v>6747.65</v>
       </c>
       <c r="E71">
-        <v>6750</v>
+        <v>6749.62</v>
       </c>
       <c r="F71">
-        <v>6752</v>
+        <v>6755.4</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H71">
         <v>-1</v>
@@ -30278,7 +30278,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -30286,31 +30286,31 @@
         <v>106</v>
       </c>
       <c r="B72">
-        <v>6833</v>
+        <v>6833.34</v>
       </c>
       <c r="C72">
-        <v>6832</v>
+        <v>6836.84</v>
       </c>
       <c r="D72">
-        <v>6831</v>
+        <v>6829.93</v>
       </c>
       <c r="E72">
-        <v>6834</v>
+        <v>6828.29</v>
       </c>
       <c r="F72">
-        <v>6834</v>
+        <v>6837.07</v>
       </c>
       <c r="G72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H72">
         <v>-2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -30318,31 +30318,31 @@
         <v>107</v>
       </c>
       <c r="B73">
-        <v>6917</v>
+        <v>6916.67</v>
       </c>
       <c r="C73">
-        <v>6917</v>
+        <v>6919.64</v>
       </c>
       <c r="D73">
-        <v>6915</v>
+        <v>6914.45</v>
       </c>
       <c r="E73">
-        <v>6919</v>
+        <v>6915.87</v>
       </c>
       <c r="F73">
-        <v>6918</v>
+        <v>6921.89</v>
       </c>
       <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <v>-1</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>-2</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -30353,28 +30353,28 @@
         <v>7000</v>
       </c>
       <c r="C74">
-        <v>7000</v>
+        <v>7002.42</v>
       </c>
       <c r="D74">
-        <v>6998</v>
+        <v>6998.26</v>
       </c>
       <c r="E74">
-        <v>7003</v>
+        <v>6997.72</v>
       </c>
       <c r="F74">
-        <v>7002</v>
+        <v>7005.29</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -30382,31 +30382,31 @@
         <v>109</v>
       </c>
       <c r="B75">
-        <v>7083</v>
+        <v>7083.34</v>
       </c>
       <c r="C75">
-        <v>7081</v>
+        <v>7084.68</v>
       </c>
       <c r="D75">
         <v>7081</v>
       </c>
       <c r="E75">
-        <v>7086</v>
+        <v>7076.92</v>
       </c>
       <c r="F75">
-        <v>7083</v>
+        <v>7089.58</v>
       </c>
       <c r="G75">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -30414,31 +30414,31 @@
         <v>110</v>
       </c>
       <c r="B76">
-        <v>7167</v>
+        <v>7166.67</v>
       </c>
       <c r="C76">
-        <v>7168</v>
+        <v>7168.04</v>
       </c>
       <c r="D76">
-        <v>7168</v>
+        <v>7166.49</v>
       </c>
       <c r="E76">
-        <v>7171</v>
+        <v>7166.21</v>
       </c>
       <c r="F76">
-        <v>7167</v>
+        <v>7173.55</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -30449,28 +30449,28 @@
         <v>7250</v>
       </c>
       <c r="C77">
-        <v>7252</v>
+        <v>7254.63</v>
       </c>
       <c r="D77">
-        <v>7249</v>
+        <v>7249.74</v>
       </c>
       <c r="E77">
-        <v>7257</v>
+        <v>7250.94</v>
       </c>
       <c r="F77">
-        <v>7253</v>
+        <v>7258.74</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -30478,19 +30478,19 @@
         <v>112</v>
       </c>
       <c r="B78">
-        <v>7333</v>
+        <v>7333.34</v>
       </c>
       <c r="C78">
-        <v>7333</v>
+        <v>7333.83</v>
       </c>
       <c r="D78">
-        <v>7332</v>
+        <v>7331.15</v>
       </c>
       <c r="E78">
-        <v>7340</v>
+        <v>7330.48</v>
       </c>
       <c r="F78">
-        <v>7334</v>
+        <v>7341.54</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -30499,10 +30499,10 @@
         <v>-1</v>
       </c>
       <c r="I78">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -30510,31 +30510,31 @@
         <v>113</v>
       </c>
       <c r="B79">
-        <v>7417</v>
+        <v>7416.67</v>
       </c>
       <c r="C79">
-        <v>7420</v>
+        <v>7415.55</v>
       </c>
       <c r="D79">
-        <v>7418</v>
+        <v>7414.6</v>
       </c>
       <c r="E79">
-        <v>7423</v>
+        <v>7417.08</v>
       </c>
       <c r="F79">
-        <v>7417</v>
+        <v>7425.64</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I79">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -30545,28 +30545,28 @@
         <v>7500</v>
       </c>
       <c r="C80">
-        <v>7506</v>
+        <v>7499.37</v>
       </c>
       <c r="D80">
-        <v>7500</v>
+        <v>7498.33</v>
       </c>
       <c r="E80">
-        <v>7508</v>
+        <v>7500.75</v>
       </c>
       <c r="F80">
-        <v>7501</v>
+        <v>7508.25</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
         <v>8</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -30574,31 +30574,31 @@
         <v>115</v>
       </c>
       <c r="B81">
-        <v>7583</v>
+        <v>7583.34</v>
       </c>
       <c r="C81">
-        <v>7583</v>
+        <v>7578.66</v>
       </c>
       <c r="D81">
-        <v>7582</v>
+        <v>7581.25</v>
       </c>
       <c r="E81">
-        <v>7588</v>
+        <v>7582.18</v>
       </c>
       <c r="F81">
-        <v>7583</v>
+        <v>7591.02</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="H81">
         <v>-1</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -30606,31 +30606,31 @@
         <v>116</v>
       </c>
       <c r="B82">
-        <v>7667</v>
+        <v>7666.67</v>
       </c>
       <c r="C82">
-        <v>7668</v>
+        <v>7666.77</v>
       </c>
       <c r="D82">
-        <v>7665</v>
+        <v>7666.03</v>
       </c>
       <c r="E82">
-        <v>7672</v>
+        <v>7664.59</v>
       </c>
       <c r="F82">
-        <v>7666</v>
+        <v>7676.45</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J82">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -30638,31 +30638,31 @@
         <v>117</v>
       </c>
       <c r="B83">
-        <v>7750</v>
+        <v>7750.01</v>
       </c>
       <c r="C83">
-        <v>7753</v>
+        <v>7750.96</v>
       </c>
       <c r="D83">
-        <v>7747</v>
+        <v>7751.6</v>
       </c>
       <c r="E83">
-        <v>7756</v>
+        <v>7750.31</v>
       </c>
       <c r="F83">
-        <v>7750</v>
+        <v>7758.21</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -30670,31 +30670,31 @@
         <v>118</v>
       </c>
       <c r="B84">
-        <v>7833</v>
+        <v>7833.34</v>
       </c>
       <c r="C84">
-        <v>7833</v>
+        <v>7830.18</v>
       </c>
       <c r="D84">
-        <v>7827</v>
+        <v>7831.45</v>
       </c>
       <c r="E84">
-        <v>7835</v>
+        <v>7831.51</v>
       </c>
       <c r="F84">
-        <v>7831</v>
+        <v>7843.4</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H84">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J84">
-        <v>-2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -30702,31 +30702,31 @@
         <v>119</v>
       </c>
       <c r="B85">
-        <v>7917</v>
+        <v>7916.67</v>
       </c>
       <c r="C85">
-        <v>7916</v>
+        <v>7914.89</v>
       </c>
       <c r="D85">
-        <v>7913</v>
+        <v>7918</v>
       </c>
       <c r="E85">
-        <v>7918</v>
+        <v>7913.06</v>
       </c>
       <c r="F85">
-        <v>7915</v>
+        <v>7927.29</v>
       </c>
       <c r="G85">
         <v>-1</v>
       </c>
       <c r="H85">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J85">
-        <v>-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -30734,31 +30734,31 @@
         <v>120</v>
       </c>
       <c r="B86">
-        <v>8000</v>
+        <v>8000.01</v>
       </c>
       <c r="C86">
-        <v>8001</v>
+        <v>7997.81</v>
       </c>
       <c r="D86">
-        <v>7996</v>
+        <v>8001.63</v>
       </c>
       <c r="E86">
-        <v>8001</v>
+        <v>7996.02</v>
       </c>
       <c r="F86">
-        <v>7998</v>
+        <v>8008.46</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H86">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J86">
-        <v>-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
